--- a/data/Plate_results/Second_Plate_Rep1_240720.xlsx
+++ b/data/Plate_results/Second_Plate_Rep1_240720.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GFP" sheetId="1" state="visible" r:id="rId1"/>
@@ -484,7 +484,7 @@
   </sheetPr>
   <dimension ref="A1:CS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -15358,7 +15358,7 @@
   </sheetPr>
   <dimension ref="A1:CS50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -45092,7 +45092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45115,11 +45115,11 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>43.29146911320133</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -45130,11 +45130,11 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.29146911320133</v>
+        <v>80.48420110598282</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -45145,11 +45145,11 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.48420110598282</v>
+        <v>36.17216723917488</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -45160,11 +45160,11 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.17216723917488</v>
+        <v>39.07316906278712</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -45175,11 +45175,11 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.07316906278712</v>
+        <v>37.56721166142808</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -45190,11 +45190,11 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.56721166142808</v>
+        <v>37.95940414431961</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -45205,11 +45205,11 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.95940414431961</v>
+        <v>32.48953784679772</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -45220,11 +45220,11 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.48953784679772</v>
+        <v>38.0939212539413</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -45235,11 +45235,11 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.0939212539413</v>
+        <v>31.28152531298575</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -45250,11 +45250,11 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.28152531298575</v>
+        <v>25.3407349707189</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -45265,11 +45265,11 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.3407349707189</v>
+        <v>29.56909170762596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -45280,11 +45280,11 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.56909170762596</v>
+        <v>35.18003624661795</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -45295,11 +45295,11 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.18003624661795</v>
+        <v>54.32718456881489</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -45310,11 +45310,11 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.32718456881489</v>
+        <v>27.84078125000469</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -45325,11 +45325,11 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.84078125000469</v>
+        <v>24.32397521595034</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -45340,11 +45340,11 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.32397521595034</v>
+        <v>25.5890437532052</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -45355,11 +45355,11 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.5890437532052</v>
+        <v>15.82137019329725</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -45370,11 +45370,11 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.82137019329725</v>
+        <v>7.711993661789794</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -45385,11 +45385,11 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.711993661789794</v>
+        <v>20.95253174329243</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -45400,11 +45400,11 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.95253174329243</v>
+        <v>13.22744583057427</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -45415,11 +45415,11 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.22744583057427</v>
+        <v>18.13758195552076</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -45430,11 +45430,11 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.13758195552076</v>
+        <v>10.92903571868632</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -45445,11 +45445,11 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.92903571868632</v>
+        <v>16.65885518787749</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -45460,11 +45460,11 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.65885518787749</v>
+        <v>46.22702483387774</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -45475,41 +45475,41 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.22702483387774</v>
+        <v>421.124031007752</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>421.124031007752</v>
+        <v>33.55307288038031</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Possibly an empty well</t>
+          <t>Correct value</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.55307288038031</v>
+        <v>33.82800847256363</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -45520,11 +45520,11 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.82800847256363</v>
+        <v>20.22766984779151</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -45535,11 +45535,11 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.22766984779151</v>
+        <v>24.25968070299425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -45550,11 +45550,11 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.25968070299425</v>
+        <v>24.3905582754543</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -45565,11 +45565,11 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.3905582754543</v>
+        <v>19.97479848897864</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -45580,11 +45580,11 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.97479848897864</v>
+        <v>13.403657089992</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -45595,11 +45595,11 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.403657089992</v>
+        <v>33.09963041466695</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -45610,11 +45610,11 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.09963041466695</v>
+        <v>33.35028941491829</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -45625,11 +45625,11 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33.35028941491829</v>
+        <v>38.61741167499802</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -45640,11 +45640,11 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.61741167499802</v>
+        <v>51.15978695737882</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -45655,11 +45655,11 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.15978695737882</v>
+        <v>51.35766009008065</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -45670,11 +45670,11 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.35766009008065</v>
+        <v>41.32745607416997</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -45685,11 +45685,11 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.32745607416997</v>
+        <v>32.78803712443451</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -45700,11 +45700,11 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.78803712443451</v>
+        <v>27.83066164759522</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -45715,11 +45715,11 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27.83066164759522</v>
+        <v>12.53573452202732</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -45730,11 +45730,11 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.53573452202732</v>
+        <v>35.5737759860612</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -45745,11 +45745,11 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.5737759860612</v>
+        <v>16.86489427549133</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -45760,11 +45760,11 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.86489427549133</v>
+        <v>31.7114980874527</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -45775,11 +45775,11 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.7114980874527</v>
+        <v>11.32263580213616</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -45790,11 +45790,11 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11.32263580213616</v>
+        <v>11.30373630427005</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -45805,11 +45805,11 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>11.30373630427005</v>
+        <v>12.4959989809208</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -45820,11 +45820,11 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12.4959989809208</v>
+        <v>32.37503863098502</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -45835,11 +45835,11 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>32.37503863098502</v>
+        <v>41.82098336923794</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -45850,11 +45850,11 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>41.82098336923794</v>
+        <v>9.316144954179977</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -45865,11 +45865,11 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9.316144954179977</v>
+        <v>13.77064516689666</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -45880,11 +45880,11 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.77064516689666</v>
+        <v>38.43584416904062</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -45895,11 +45895,11 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>38.43584416904062</v>
+        <v>14.10520788352173</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -45910,11 +45910,11 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14.10520788352173</v>
+        <v>11.78099068337728</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -45925,11 +45925,11 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11.78099068337728</v>
+        <v>11.28878047322418</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -45940,11 +45940,11 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11.28878047322418</v>
+        <v>9.425201166139306</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -45955,11 +45955,11 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9.425201166139306</v>
+        <v>10.49143166267147</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -45970,11 +45970,11 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10.49143166267147</v>
+        <v>12.70132723887818</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -45985,11 +45985,11 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12.70132723887818</v>
+        <v>41.28219342173442</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -46000,11 +46000,11 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>41.28219342173442</v>
+        <v>35.74805748468108</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -46015,11 +46015,11 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>35.74805748468108</v>
+        <v>43.230990597927</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -46030,11 +46030,11 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>43.230990597927</v>
+        <v>28.34315130312427</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -46045,11 +46045,11 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>28.34315130312427</v>
+        <v>35.10254953729763</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -46060,11 +46060,11 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>35.10254953729763</v>
+        <v>39.90681865727209</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -46075,11 +46075,11 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>39.90681865727209</v>
+        <v>12.88346807146398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -46090,11 +46090,11 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>12.88346807146398</v>
+        <v>33.73733035314522</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -46105,11 +46105,11 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33.73733035314522</v>
+        <v>13.59923455860999</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -46120,11 +46120,11 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>13.59923455860999</v>
+        <v>16.05704406244904</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -46135,11 +46135,11 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16.05704406244904</v>
+        <v>12.50122902670715</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -46150,11 +46150,11 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12.50122902670715</v>
+        <v>12.6287951521309</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -46165,11 +46165,11 @@
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12.6287951521309</v>
+        <v>31.19234885474531</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -46180,11 +46180,11 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>31.19234885474531</v>
+        <v>36.80660943173117</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -46195,11 +46195,11 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>36.80660943173117</v>
+        <v>32.97246653805958</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -46210,11 +46210,11 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>32.97246653805958</v>
+        <v>26.60881453212518</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -46225,11 +46225,11 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>26.60881453212518</v>
+        <v>34.93393282016631</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -46240,11 +46240,11 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>34.93393282016631</v>
+        <v>11.15681503312136</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -46255,11 +46255,11 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>11.15681503312136</v>
+        <v>19.55666210081236</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -46270,11 +46270,11 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>19.55666210081236</v>
+        <v>20.96959772612704</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -46285,11 +46285,11 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>20.96959772612704</v>
+        <v>16.12137170007778</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -46300,11 +46300,11 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>16.12137170007778</v>
+        <v>47.63053962352951</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -46315,11 +46315,11 @@
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>47.63053962352951</v>
+        <v>19.54921819702747</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -46330,11 +46330,11 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>19.54921819702747</v>
+        <v>36.8572055719797</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -46345,11 +46345,11 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>36.8572055719797</v>
+        <v>27.72080587030036</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -46360,11 +46360,11 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>27.72080587030036</v>
+        <v>40.68358233191744</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -46375,11 +46375,11 @@
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>40.68358233191744</v>
+        <v>42.01226999336861</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -46390,11 +46390,11 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>42.01226999336861</v>
+        <v>35.85527852246912</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -46405,11 +46405,11 @@
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>35.85527852246912</v>
+        <v>27.89515304442214</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -46420,11 +46420,11 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>27.89515304442214</v>
+        <v>28.80736339506587</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -46435,11 +46435,11 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>28.80736339506587</v>
+        <v>34.3949939181084</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -46450,26 +46450,26 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>34.3949939181084</v>
+        <v>355.7765151515152</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>355.7765151515152</v>
+        <v>343.6742424242424</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -46480,11 +46480,11 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>343.6742424242424</v>
+        <v>389.4318181818182</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -46495,11 +46495,11 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>389.4318181818182</v>
+        <v>359.9431818181819</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -46510,11 +46510,11 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>359.9431818181819</v>
+        <v>370.9259259259259</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -46525,11 +46525,11 @@
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>370.9259259259259</v>
+        <v>371.8749999999999</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -46540,28 +46540,13 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>371.8749999999999</v>
+        <v>429.5542635658915</v>
       </c>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>Possibly an empty well</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="inlineStr">
-        <is>
-          <t>H12</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>429.5542635658915</v>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>Possibly an empty well</t>
         </is>
